--- a/Code/Results/Cases/Case_0_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_175/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06226396029800441</v>
+        <v>0.02066213248981796</v>
       </c>
       <c r="D2">
-        <v>0.2387497203718567</v>
+        <v>0.2489056027130232</v>
       </c>
       <c r="E2">
-        <v>0.1820868037557091</v>
+        <v>0.1807104754608204</v>
       </c>
       <c r="F2">
-        <v>0.6070500483537984</v>
+        <v>0.9993407371113818</v>
       </c>
       <c r="G2">
-        <v>0.3171977145905771</v>
+        <v>0.4687505247309076</v>
       </c>
       <c r="H2">
-        <v>0.2517228829193243</v>
+        <v>0.6144515826206884</v>
       </c>
       <c r="I2">
-        <v>0.3016796867193676</v>
+        <v>0.4704568079904092</v>
       </c>
       <c r="J2">
-        <v>0.1855262825308372</v>
+        <v>0.1769199659630942</v>
       </c>
       <c r="K2">
-        <v>3.076327528549285</v>
+        <v>1.058472516520965</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9565627246862931</v>
+        <v>1.059454565646277</v>
       </c>
       <c r="O2">
-        <v>1.149577586386613</v>
+        <v>2.124451967642727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0543854729325659</v>
+        <v>0.018137701825367</v>
       </c>
       <c r="D3">
-        <v>0.2130798283405113</v>
+        <v>0.2429044160737277</v>
       </c>
       <c r="E3">
-        <v>0.1624167249418065</v>
+        <v>0.1764126774282246</v>
       </c>
       <c r="F3">
-        <v>0.5666551135491034</v>
+        <v>0.9978244949901338</v>
       </c>
       <c r="G3">
-        <v>0.2946855560705828</v>
+        <v>0.4683098009098998</v>
       </c>
       <c r="H3">
-        <v>0.246957531205652</v>
+        <v>0.6181737008242152</v>
       </c>
       <c r="I3">
-        <v>0.28091331587121</v>
+        <v>0.4697686460050079</v>
       </c>
       <c r="J3">
-        <v>0.1653595488093416</v>
+        <v>0.1727414055249383</v>
       </c>
       <c r="K3">
-        <v>2.680962491579379</v>
+        <v>0.9341490024015116</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9278650980757703</v>
+        <v>1.052374946025523</v>
       </c>
       <c r="O3">
-        <v>1.091507853924966</v>
+        <v>2.131032441661816</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04954723415574591</v>
+        <v>0.01658027940194984</v>
       </c>
       <c r="D4">
-        <v>0.197472416291518</v>
+        <v>0.2393160958367559</v>
       </c>
       <c r="E4">
-        <v>0.1505082363682035</v>
+        <v>0.1738621112502301</v>
       </c>
       <c r="F4">
-        <v>0.5430316234819941</v>
+        <v>0.9975097583419128</v>
       </c>
       <c r="G4">
-        <v>0.2816809800405764</v>
+        <v>0.4684100999027407</v>
       </c>
       <c r="H4">
-        <v>0.2445476676073568</v>
+        <v>0.620765225742872</v>
       </c>
       <c r="I4">
-        <v>0.2688205699175796</v>
+        <v>0.4696709163160691</v>
       </c>
       <c r="J4">
-        <v>0.1531968079911081</v>
+        <v>0.1702772835565511</v>
       </c>
       <c r="K4">
-        <v>2.437960870941652</v>
+        <v>0.8576297687980343</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9110214389869071</v>
+        <v>1.048394256316783</v>
       </c>
       <c r="O4">
-        <v>1.058657491382561</v>
+        <v>2.136490235872174</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04757485809169992</v>
+        <v>0.01594378141360409</v>
       </c>
       <c r="D5">
-        <v>0.1911480483965136</v>
+        <v>0.2378782072684373</v>
       </c>
       <c r="E5">
-        <v>0.1456946519946136</v>
+        <v>0.1728449969052086</v>
       </c>
       <c r="F5">
-        <v>0.5336844742946596</v>
+        <v>0.9975364408591645</v>
       </c>
       <c r="G5">
-        <v>0.2765744514597728</v>
+        <v>0.468544088841945</v>
       </c>
       <c r="H5">
-        <v>0.2436896746402866</v>
+        <v>0.6218982858957816</v>
       </c>
       <c r="I5">
-        <v>0.2640484000712426</v>
+        <v>0.4697127112641617</v>
       </c>
       <c r="J5">
-        <v>0.1482912909602518</v>
+        <v>0.1692986832509149</v>
       </c>
       <c r="K5">
-        <v>2.338855797352807</v>
+        <v>0.82640366459799</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9043456447963507</v>
+        <v>1.046864633459833</v>
       </c>
       <c r="O5">
-        <v>1.045936937923472</v>
+        <v>2.139070440033748</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04724728545370027</v>
+        <v>0.01583798135989412</v>
       </c>
       <c r="D6">
-        <v>0.1900999696071182</v>
+        <v>0.2376409234159098</v>
       </c>
       <c r="E6">
-        <v>0.1448976360209038</v>
+        <v>0.1726774521417482</v>
       </c>
       <c r="F6">
-        <v>0.5321487959789195</v>
+        <v>0.9975502289387563</v>
       </c>
       <c r="G6">
-        <v>0.2757378077104349</v>
+        <v>0.4685719571715623</v>
       </c>
       <c r="H6">
-        <v>0.243554535123792</v>
+        <v>0.6220910802591391</v>
       </c>
       <c r="I6">
-        <v>0.2632651145330591</v>
+        <v>0.4697245793792391</v>
       </c>
       <c r="J6">
-        <v>0.1474796845756003</v>
+        <v>0.169137731088</v>
       </c>
       <c r="K6">
-        <v>2.322394143190138</v>
+        <v>0.8212160132355848</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9032482946189617</v>
+        <v>1.046616243330106</v>
       </c>
       <c r="O6">
-        <v>1.043863831124213</v>
+        <v>2.139520380354952</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04952063776355686</v>
+        <v>0.01657170276379105</v>
       </c>
       <c r="D7">
-        <v>0.1973869825719845</v>
+        <v>0.2392966050743439</v>
       </c>
       <c r="E7">
-        <v>0.1504431640981316</v>
+        <v>0.1738483038740988</v>
       </c>
       <c r="F7">
-        <v>0.5429044541759254</v>
+        <v>0.9975094908703355</v>
       </c>
       <c r="G7">
-        <v>0.2816113468228139</v>
+        <v>0.4684115301010436</v>
       </c>
       <c r="H7">
-        <v>0.2445356015342242</v>
+        <v>0.6207801948298481</v>
       </c>
       <c r="I7">
-        <v>0.2687555927663468</v>
+        <v>0.4696711495710737</v>
       </c>
       <c r="J7">
-        <v>0.1531304499824131</v>
+        <v>0.1702639823371399</v>
       </c>
       <c r="K7">
-        <v>2.436624651928412</v>
+        <v>0.8572088171878534</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9109306543512332</v>
+        <v>1.048373251993638</v>
       </c>
       <c r="O7">
-        <v>1.058483290273372</v>
+        <v>2.136523591933951</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05954728569437862</v>
+        <v>0.01979326322836528</v>
       </c>
       <c r="D8">
-        <v>0.2298649501385199</v>
+        <v>0.2468164560051775</v>
       </c>
       <c r="E8">
-        <v>0.1752674506460252</v>
+        <v>0.1792103016074478</v>
       </c>
       <c r="F8">
-        <v>0.5928667175412556</v>
+        <v>0.9986900210684553</v>
       </c>
       <c r="G8">
-        <v>0.3092578928640819</v>
+        <v>0.4685214895400236</v>
       </c>
       <c r="H8">
-        <v>0.2499691465891942</v>
+        <v>0.6156714397388399</v>
       </c>
       <c r="I8">
-        <v>0.2943769108491026</v>
+        <v>0.4701520823823628</v>
       </c>
       <c r="J8">
-        <v>0.1785245003281943</v>
+        <v>0.1754581350140541</v>
       </c>
       <c r="K8">
-        <v>2.940045274594013</v>
+        <v>1.015645375896469</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9465020847024874</v>
+        <v>1.056937766502884</v>
       </c>
       <c r="O8">
-        <v>1.128948971689141</v>
+        <v>2.126426559692931</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07923009279804205</v>
+        <v>0.02605097711658289</v>
       </c>
       <c r="D9">
-        <v>0.2949196595816801</v>
+        <v>0.2623231413283946</v>
       </c>
       <c r="E9">
-        <v>0.2254472863512049</v>
+        <v>0.1904239312949585</v>
       </c>
       <c r="F9">
-        <v>0.7010044699415516</v>
+        <v>1.005897141346566</v>
       </c>
       <c r="G9">
-        <v>0.3705693463888906</v>
+        <v>0.4716876839307957</v>
       </c>
       <c r="H9">
-        <v>0.2649914476695869</v>
+        <v>0.6080818616907493</v>
       </c>
       <c r="I9">
-        <v>0.350302586682254</v>
+        <v>0.4736756179084409</v>
       </c>
       <c r="J9">
-        <v>0.2302748076166381</v>
+        <v>0.1864493893032346</v>
       </c>
       <c r="K9">
-        <v>3.926232248044982</v>
+        <v>1.324787691395954</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.022771185030138</v>
+        <v>1.076620825952816</v>
       </c>
       <c r="O9">
-        <v>1.291242044292801</v>
+        <v>2.117888131863737</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09374459624254428</v>
+        <v>0.03061123769862206</v>
       </c>
       <c r="D10">
-        <v>0.3437635874589375</v>
+        <v>0.2741742373153784</v>
       </c>
       <c r="E10">
-        <v>0.2634648473904306</v>
+        <v>0.199087164292429</v>
       </c>
       <c r="F10">
-        <v>0.7878363933456569</v>
+        <v>1.014180410066686</v>
       </c>
       <c r="G10">
-        <v>0.4208331923809112</v>
+        <v>0.4758242884286261</v>
       </c>
       <c r="H10">
-        <v>0.2790909631087573</v>
+        <v>0.6039863838863369</v>
       </c>
       <c r="I10">
-        <v>0.3955358162643492</v>
+        <v>0.4778431175225819</v>
       </c>
       <c r="J10">
-        <v>0.2697974384211648</v>
+        <v>0.1950167628396287</v>
       </c>
       <c r="K10">
-        <v>4.651631056188194</v>
+        <v>1.550868701455272</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.083301346301994</v>
+        <v>1.09282170123717</v>
       </c>
       <c r="O10">
-        <v>1.427907043947215</v>
+        <v>2.118505595069053</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1003689787094117</v>
+        <v>0.03267756551424839</v>
       </c>
       <c r="D11">
-        <v>0.3662629621383644</v>
+        <v>0.2796641212814563</v>
       </c>
       <c r="E11">
-        <v>0.2810660289934219</v>
+        <v>0.2031202512779302</v>
       </c>
       <c r="F11">
-        <v>0.8292227030377717</v>
+        <v>1.018598939261992</v>
       </c>
       <c r="G11">
-        <v>0.4450434604708988</v>
+        <v>0.4781018108287469</v>
       </c>
       <c r="H11">
-        <v>0.2862648931522642</v>
+        <v>0.6024447785457596</v>
       </c>
       <c r="I11">
-        <v>0.4171743128298004</v>
+        <v>0.4800831139910997</v>
       </c>
       <c r="J11">
-        <v>0.2881774312904781</v>
+        <v>0.199021420112004</v>
       </c>
       <c r="K11">
-        <v>4.982177441735814</v>
+        <v>1.65347183489223</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.111939369218135</v>
+        <v>1.100565526040256</v>
       </c>
       <c r="O11">
-        <v>1.494509280860598</v>
+        <v>2.120288336146018</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1028814098175275</v>
+        <v>0.03345883362112545</v>
       </c>
       <c r="D12">
-        <v>0.3748276515210165</v>
+        <v>0.2817570836780874</v>
       </c>
       <c r="E12">
-        <v>0.2877802111538657</v>
+        <v>0.2046606816958274</v>
       </c>
       <c r="F12">
-        <v>0.8451907759852162</v>
+        <v>1.020365717638924</v>
       </c>
       <c r="G12">
-        <v>0.4544234169449339</v>
+        <v>0.4790213417126381</v>
       </c>
       <c r="H12">
-        <v>0.2890991973625177</v>
+        <v>0.6019072351617183</v>
       </c>
       <c r="I12">
-        <v>0.425535183410986</v>
+        <v>0.4809809145104538</v>
       </c>
       <c r="J12">
-        <v>0.2952016733086964</v>
+        <v>0.2005533095229453</v>
       </c>
       <c r="K12">
-        <v>5.107458220411047</v>
+        <v>1.692287987303473</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.122953460042638</v>
+        <v>1.1035513002643</v>
       </c>
       <c r="O12">
-        <v>1.520424657412519</v>
+        <v>2.121179769498895</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1023401250161129</v>
+        <v>0.03329062768131053</v>
       </c>
       <c r="D13">
-        <v>0.372981032637469</v>
+        <v>0.2813057035631061</v>
       </c>
       <c r="E13">
-        <v>0.2863319313984221</v>
+        <v>0.2043283368912157</v>
       </c>
       <c r="F13">
-        <v>0.8417381899600969</v>
+        <v>1.019981047706594</v>
       </c>
       <c r="G13">
-        <v>0.4523935340799028</v>
+        <v>0.4788207627863841</v>
       </c>
       <c r="H13">
-        <v>0.2884834049018821</v>
+        <v>0.6020209486122354</v>
       </c>
       <c r="I13">
-        <v>0.4237268642156096</v>
+        <v>0.4807853517005327</v>
       </c>
       <c r="J13">
-        <v>0.2936859164535264</v>
+        <v>0.200222704561682</v>
       </c>
       <c r="K13">
-        <v>5.080471369507848</v>
+        <v>1.683929940159715</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.120573658041522</v>
+        <v>1.10290589396142</v>
       </c>
       <c r="O13">
-        <v>1.514811475838513</v>
+        <v>2.120978155174157</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1005755945326285</v>
+        <v>0.03274186525457878</v>
       </c>
       <c r="D14">
-        <v>0.3669666628619837</v>
+        <v>0.2798360295222864</v>
       </c>
       <c r="E14">
-        <v>0.2816173976695211</v>
+        <v>0.203246719463877</v>
       </c>
       <c r="F14">
-        <v>0.8305303264213677</v>
+        <v>1.018742417494153</v>
       </c>
       <c r="G14">
-        <v>0.4458107940213978</v>
+        <v>0.4781763161840189</v>
       </c>
       <c r="H14">
-        <v>0.286495664160924</v>
+        <v>0.6023996279981247</v>
       </c>
       <c r="I14">
-        <v>0.4178587383853127</v>
+        <v>0.4801559828784008</v>
       </c>
       <c r="J14">
-        <v>0.2887539957371104</v>
+        <v>0.1991471407963132</v>
       </c>
       <c r="K14">
-        <v>4.992481982475738</v>
+        <v>1.656666028034863</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.112842042867484</v>
+        <v>1.100810100533167</v>
       </c>
       <c r="O14">
-        <v>1.496627093585914</v>
+        <v>2.120357336785162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09949530416074026</v>
+        <v>0.03240557448447134</v>
       </c>
       <c r="D15">
-        <v>0.3632886400892232</v>
+        <v>0.2789376389532237</v>
       </c>
       <c r="E15">
-        <v>0.278736141064087</v>
+        <v>0.2025859131814158</v>
       </c>
       <c r="F15">
-        <v>0.8237044945362868</v>
+        <v>1.017995908598394</v>
       </c>
       <c r="G15">
-        <v>0.4418068658932697</v>
+        <v>0.4777890129698932</v>
       </c>
       <c r="H15">
-        <v>0.2852937017487278</v>
+        <v>0.6026376006046377</v>
       </c>
       <c r="I15">
-        <v>0.4142865062790406</v>
+        <v>0.4797769328524453</v>
       </c>
       <c r="J15">
-        <v>0.28574160466124</v>
+        <v>0.1984903335303727</v>
       </c>
       <c r="K15">
-        <v>4.938601196219565</v>
+        <v>1.63996114366978</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.108128615826644</v>
+        <v>1.099533302702</v>
       </c>
       <c r="O15">
-        <v>1.485580847205625</v>
+        <v>2.120005253808841</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09331218088419746</v>
+        <v>0.03047603140210242</v>
       </c>
       <c r="D16">
-        <v>0.3422992042165873</v>
+        <v>0.273817435911738</v>
       </c>
       <c r="E16">
-        <v>0.2623211518174813</v>
+        <v>0.1988254413877257</v>
       </c>
       <c r="F16">
-        <v>0.7851717322517544</v>
+        <v>1.013904741081845</v>
       </c>
       <c r="G16">
-        <v>0.4192796249547683</v>
+        <v>0.4756834254914253</v>
       </c>
       <c r="H16">
-        <v>0.2786381288268416</v>
+        <v>0.6040936002277704</v>
       </c>
       <c r="I16">
-        <v>0.3941442437409037</v>
+        <v>0.4777036602584346</v>
       </c>
       <c r="J16">
-        <v>0.2686048745868419</v>
+        <v>0.1947572069026506</v>
       </c>
       <c r="K16">
-        <v>4.630042797496003</v>
+        <v>1.544158248926351</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.081452889493335</v>
+        <v>1.092323113159893</v>
       </c>
       <c r="O16">
-        <v>1.423648426368175</v>
+        <v>2.11841934272303</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08952514034736225</v>
+        <v>0.02929020688073081</v>
       </c>
       <c r="D17">
-        <v>0.3294976203347915</v>
+        <v>0.2707015532143515</v>
       </c>
       <c r="E17">
-        <v>0.2523330332056375</v>
+        <v>0.1965420690149742</v>
       </c>
       <c r="F17">
-        <v>0.7620332984156022</v>
+        <v>1.011561566210645</v>
       </c>
       <c r="G17">
-        <v>0.4058172593993277</v>
+        <v>0.4744932028472988</v>
       </c>
       <c r="H17">
-        <v>0.2747556098779285</v>
+        <v>0.6050691431544664</v>
       </c>
       <c r="I17">
-        <v>0.3820693335430079</v>
+        <v>0.4765199774362259</v>
       </c>
       <c r="J17">
-        <v>0.2581992094493586</v>
+        <v>0.1924945272612746</v>
       </c>
       <c r="K17">
-        <v>4.440915676651514</v>
+        <v>1.485322383023458</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.065378145491565</v>
+        <v>1.087995375945752</v>
       </c>
       <c r="O17">
-        <v>1.38682968048218</v>
+        <v>2.117831372188334</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08734892238371117</v>
+        <v>0.02860738608826807</v>
       </c>
       <c r="D18">
-        <v>0.3221605644995265</v>
+        <v>0.268918684077903</v>
       </c>
       <c r="E18">
-        <v>0.2466166977025352</v>
+        <v>0.1952374098630187</v>
       </c>
       <c r="F18">
-        <v>0.7489006282934838</v>
+        <v>1.010275052743822</v>
       </c>
       <c r="G18">
-        <v>0.3981994727636931</v>
+        <v>0.4738458588571604</v>
       </c>
       <c r="H18">
-        <v>0.2725934861179553</v>
+        <v>0.6056605055411239</v>
       </c>
       <c r="I18">
-        <v>0.3752231922539337</v>
+        <v>0.4758715461264842</v>
       </c>
       <c r="J18">
-        <v>0.2522514713273125</v>
+        <v>0.1912031960600871</v>
       </c>
       <c r="K18">
-        <v>4.332185435767997</v>
+        <v>1.451458901668786</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.056235456737582</v>
+        <v>1.085541400016055</v>
       </c>
       <c r="O18">
-        <v>1.366066094403607</v>
+        <v>2.117634525978787</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08661241003325415</v>
+        <v>0.02837606414200877</v>
       </c>
       <c r="D19">
-        <v>0.3196807130925094</v>
+        <v>0.268316637464352</v>
       </c>
       <c r="E19">
-        <v>0.2446860077806932</v>
+        <v>0.194797166714558</v>
       </c>
       <c r="F19">
-        <v>0.7444836224809421</v>
+        <v>1.009849974331175</v>
       </c>
       <c r="G19">
-        <v>0.3956412121739277</v>
+        <v>0.4736330701268656</v>
       </c>
       <c r="H19">
-        <v>0.2718733750666757</v>
+        <v>0.6058659270037907</v>
       </c>
       <c r="I19">
-        <v>0.3729217976804478</v>
+        <v>0.4756575595959589</v>
       </c>
       <c r="J19">
-        <v>0.250243889853806</v>
+        <v>0.1907677091606104</v>
       </c>
       <c r="K19">
-        <v>4.295379084553645</v>
+        <v>1.439989498115608</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.053157281569611</v>
+        <v>1.084716588605289</v>
       </c>
       <c r="O19">
-        <v>1.359105253999132</v>
+        <v>2.117592140599754</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08992806589749591</v>
+        <v>0.02941651942700219</v>
       </c>
       <c r="D20">
-        <v>0.3308576410774577</v>
+        <v>0.2710322823070754</v>
       </c>
       <c r="E20">
-        <v>0.2533932947261732</v>
+        <v>0.1967842403887587</v>
       </c>
       <c r="F20">
-        <v>0.7644780403735041</v>
+        <v>1.011804664923915</v>
       </c>
       <c r="G20">
-        <v>0.4072372405942986</v>
+        <v>0.4746160485614155</v>
       </c>
       <c r="H20">
-        <v>0.275161503452594</v>
+        <v>0.604962163533969</v>
       </c>
       <c r="I20">
-        <v>0.3833443796371583</v>
+        <v>0.4766426295601889</v>
       </c>
       <c r="J20">
-        <v>0.2593030017314675</v>
+        <v>0.1927343479627694</v>
       </c>
       <c r="K20">
-        <v>4.461043129657298</v>
+        <v>1.491587924110377</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.067078584183434</v>
+        <v>1.088452428466056</v>
       </c>
       <c r="O20">
-        <v>1.390705892655546</v>
+        <v>2.117879331821513</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1010937667959979</v>
+        <v>0.03290308305474809</v>
       </c>
       <c r="D21">
-        <v>0.3687319803004669</v>
+        <v>0.2802673278720818</v>
       </c>
       <c r="E21">
-        <v>0.2830008001695958</v>
+        <v>0.2035640592971291</v>
       </c>
       <c r="F21">
-        <v>0.8338141092778386</v>
+        <v>1.019103693189763</v>
       </c>
       <c r="G21">
-        <v>0.4477383944774829</v>
+        <v>0.47836405519854</v>
       </c>
       <c r="H21">
-        <v>0.287076247847196</v>
+        <v>0.602287145996911</v>
       </c>
       <c r="I21">
-        <v>0.4195777035118624</v>
+        <v>0.4803394980953826</v>
       </c>
       <c r="J21">
-        <v>0.2902008257948694</v>
+        <v>0.1994626418085375</v>
       </c>
       <c r="K21">
-        <v>5.018323362862247</v>
+        <v>1.664675136303401</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.115108314751922</v>
+        <v>1.101424241116703</v>
       </c>
       <c r="O21">
-        <v>1.501948962955794</v>
+        <v>2.120533811534642</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1084144669173668</v>
+        <v>0.0351747129188027</v>
       </c>
       <c r="D22">
-        <v>0.3937476553460897</v>
+        <v>0.2863848662451005</v>
       </c>
       <c r="E22">
-        <v>0.3026391215155968</v>
+        <v>0.2080719033137086</v>
       </c>
       <c r="F22">
-        <v>0.880867125430413</v>
+        <v>1.024419490500691</v>
       </c>
       <c r="G22">
-        <v>0.4754538177086829</v>
+        <v>0.4811463942624528</v>
       </c>
       <c r="H22">
-        <v>0.2955535406727705</v>
+        <v>0.600808328386222</v>
       </c>
       <c r="I22">
-        <v>0.4442380239736892</v>
+        <v>0.4830445350365551</v>
       </c>
       <c r="J22">
-        <v>0.3107715269896829</v>
+        <v>0.2039497980152163</v>
       </c>
       <c r="K22">
-        <v>5.383195213241834</v>
+        <v>1.777578281817568</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.147492072489939</v>
+        <v>1.110212879136654</v>
       </c>
       <c r="O22">
-        <v>1.578730467775074</v>
+        <v>2.123529884669921</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1045048618589561</v>
+        <v>0.0339629562704431</v>
       </c>
       <c r="D23">
-        <v>0.3803707560996656</v>
+        <v>0.2831123728498142</v>
       </c>
       <c r="E23">
-        <v>0.2921297156295566</v>
+        <v>0.2056589716331274</v>
       </c>
       <c r="F23">
-        <v>0.855586404428621</v>
+        <v>1.021532424822283</v>
       </c>
       <c r="G23">
-        <v>0.4605411130365695</v>
+        <v>0.4796308996258745</v>
       </c>
       <c r="H23">
-        <v>0.2909629582769071</v>
+        <v>0.601572943753041</v>
       </c>
       <c r="I23">
-        <v>0.4309817670464113</v>
+        <v>0.4815743469588369</v>
       </c>
       <c r="J23">
-        <v>0.2997557810956692</v>
+        <v>0.2015467055982469</v>
       </c>
       <c r="K23">
-        <v>5.188385647794348</v>
+        <v>1.717340673604497</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.130113529813158</v>
+        <v>1.105493915601485</v>
       </c>
       <c r="O23">
-        <v>1.537357724822414</v>
+        <v>2.121815296833404</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08974590019536777</v>
+        <v>0.02935941687071875</v>
       </c>
       <c r="D24">
-        <v>0.330242705181945</v>
+        <v>0.2708827332192101</v>
       </c>
       <c r="E24">
-        <v>0.2529138699763465</v>
+        <v>0.1966747295322548</v>
       </c>
       <c r="F24">
-        <v>0.7633722451131462</v>
+        <v>1.011694571206377</v>
       </c>
       <c r="G24">
-        <v>0.406594888779253</v>
+        <v>0.4745603949902204</v>
       </c>
       <c r="H24">
-        <v>0.2749777815993042</v>
+        <v>0.6050104339839208</v>
       </c>
       <c r="I24">
-        <v>0.382767633697064</v>
+        <v>0.4765870786017175</v>
       </c>
       <c r="J24">
-        <v>0.2588038699000066</v>
+        <v>0.1926258953899378</v>
       </c>
       <c r="K24">
-        <v>4.451943505817326</v>
+        <v>1.48875539102238</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.06630950863206</v>
+        <v>1.088245688776595</v>
       </c>
       <c r="O24">
-        <v>1.388952203034222</v>
+        <v>2.117857209513744</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07389908186996763</v>
+        <v>0.0243645848930214</v>
       </c>
       <c r="D25">
-        <v>0.2771529853559116</v>
+        <v>0.2580473112721364</v>
       </c>
       <c r="E25">
-        <v>0.2116882741669883</v>
+        <v>0.1873156840441155</v>
       </c>
       <c r="F25">
-        <v>0.6705440835462895</v>
+        <v>1.003423082954079</v>
       </c>
       <c r="G25">
-        <v>0.353134358756364</v>
+        <v>0.4705140565178709</v>
       </c>
       <c r="H25">
-        <v>0.2604201166131332</v>
+        <v>0.6098750375550424</v>
       </c>
       <c r="I25">
-        <v>0.3344970549306083</v>
+        <v>0.4724455672794221</v>
       </c>
       <c r="J25">
-        <v>0.216034978834827</v>
+        <v>0.1833896184022592</v>
       </c>
       <c r="K25">
-        <v>3.659406921350921</v>
+        <v>1.241332960551915</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.001389016643003</v>
+        <v>1.070989038282107</v>
       </c>
       <c r="O25">
-        <v>1.244484347440107</v>
+        <v>2.118989739447272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_175/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02066213248981796</v>
+        <v>0.0622639602979973</v>
       </c>
       <c r="D2">
-        <v>0.2489056027130232</v>
+        <v>0.2387497203717004</v>
       </c>
       <c r="E2">
-        <v>0.1807104754608204</v>
+        <v>0.182086803755702</v>
       </c>
       <c r="F2">
-        <v>0.9993407371113818</v>
+        <v>0.6070500483537984</v>
       </c>
       <c r="G2">
-        <v>0.4687505247309076</v>
+        <v>0.317197714590634</v>
       </c>
       <c r="H2">
-        <v>0.6144515826206884</v>
+        <v>0.251722882919438</v>
       </c>
       <c r="I2">
-        <v>0.4704568079904092</v>
+        <v>0.3016796867193534</v>
       </c>
       <c r="J2">
-        <v>0.1769199659630942</v>
+        <v>0.1855262825308372</v>
       </c>
       <c r="K2">
-        <v>1.058472516520965</v>
+        <v>3.076327528549314</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.059454565646277</v>
+        <v>0.9565627246862931</v>
       </c>
       <c r="O2">
-        <v>2.124451967642727</v>
+        <v>1.14957758638667</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.018137701825367</v>
+        <v>0.05438547293278617</v>
       </c>
       <c r="D3">
-        <v>0.2429044160737277</v>
+        <v>0.2130798283404971</v>
       </c>
       <c r="E3">
-        <v>0.1764126774282246</v>
+        <v>0.1624167249417781</v>
       </c>
       <c r="F3">
-        <v>0.9978244949901338</v>
+        <v>0.5666551135490749</v>
       </c>
       <c r="G3">
-        <v>0.4683098009098998</v>
+        <v>0.294685556070668</v>
       </c>
       <c r="H3">
-        <v>0.6181737008242152</v>
+        <v>0.246957531205652</v>
       </c>
       <c r="I3">
-        <v>0.4697686460050079</v>
+        <v>0.2809133158712172</v>
       </c>
       <c r="J3">
-        <v>0.1727414055249383</v>
+        <v>0.1653595488093487</v>
       </c>
       <c r="K3">
-        <v>0.9341490024015116</v>
+        <v>2.680962491579351</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.052374946025523</v>
+        <v>0.9278650980757561</v>
       </c>
       <c r="O3">
-        <v>2.131032441661816</v>
+        <v>1.091507853924867</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01658027940194984</v>
+        <v>0.04954723415582407</v>
       </c>
       <c r="D4">
-        <v>0.2393160958367559</v>
+        <v>0.1974724162914754</v>
       </c>
       <c r="E4">
-        <v>0.1738621112502301</v>
+        <v>0.1505082363681964</v>
       </c>
       <c r="F4">
-        <v>0.9975097583419128</v>
+        <v>0.5430316234819799</v>
       </c>
       <c r="G4">
-        <v>0.4684100999027407</v>
+        <v>0.2816809800406972</v>
       </c>
       <c r="H4">
-        <v>0.620765225742872</v>
+        <v>0.2445476676074634</v>
       </c>
       <c r="I4">
-        <v>0.4696709163160691</v>
+        <v>0.2688205699175583</v>
       </c>
       <c r="J4">
-        <v>0.1702772835565511</v>
+        <v>0.1531968079911366</v>
       </c>
       <c r="K4">
-        <v>0.8576297687980343</v>
+        <v>2.437960870941538</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.048394256316783</v>
+        <v>0.9110214389869071</v>
       </c>
       <c r="O4">
-        <v>2.136490235872174</v>
+        <v>1.058657491382476</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01594378141360409</v>
+        <v>0.04757485809163597</v>
       </c>
       <c r="D5">
-        <v>0.2378782072684373</v>
+        <v>0.1911480483963146</v>
       </c>
       <c r="E5">
-        <v>0.1728449969052086</v>
+        <v>0.1456946519946278</v>
       </c>
       <c r="F5">
-        <v>0.9975364408591645</v>
+        <v>0.5336844742946596</v>
       </c>
       <c r="G5">
-        <v>0.468544088841945</v>
+        <v>0.2765744514598154</v>
       </c>
       <c r="H5">
-        <v>0.6218982858957816</v>
+        <v>0.2436896746401729</v>
       </c>
       <c r="I5">
-        <v>0.4697127112641617</v>
+        <v>0.2640484000712391</v>
       </c>
       <c r="J5">
-        <v>0.1692986832509149</v>
+        <v>0.1482912909601026</v>
       </c>
       <c r="K5">
-        <v>0.82640366459799</v>
+        <v>2.338855797352664</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.046864633459833</v>
+        <v>0.9043456447963507</v>
       </c>
       <c r="O5">
-        <v>2.139070440033748</v>
+        <v>1.045936937923472</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01583798135989412</v>
+        <v>0.04724728545362211</v>
       </c>
       <c r="D6">
-        <v>0.2376409234159098</v>
+        <v>0.1900999696070187</v>
       </c>
       <c r="E6">
-        <v>0.1726774521417482</v>
+        <v>0.1448976360208967</v>
       </c>
       <c r="F6">
-        <v>0.9975502289387563</v>
+        <v>0.5321487959789408</v>
       </c>
       <c r="G6">
-        <v>0.4685719571715623</v>
+        <v>0.2757378077103354</v>
       </c>
       <c r="H6">
-        <v>0.6220910802591391</v>
+        <v>0.2435545351237849</v>
       </c>
       <c r="I6">
-        <v>0.4697245793792391</v>
+        <v>0.2632651145330698</v>
       </c>
       <c r="J6">
-        <v>0.169137731088</v>
+        <v>0.1474796845756288</v>
       </c>
       <c r="K6">
-        <v>0.8212160132355848</v>
+        <v>2.322394143190223</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.046616243330106</v>
+        <v>0.9032482946189617</v>
       </c>
       <c r="O6">
-        <v>2.139520380354952</v>
+        <v>1.043863831124256</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01657170276379105</v>
+        <v>0.04952063776349291</v>
       </c>
       <c r="D7">
-        <v>0.2392966050743439</v>
+        <v>0.1973869825718992</v>
       </c>
       <c r="E7">
-        <v>0.1738483038740988</v>
+        <v>0.1504431640981103</v>
       </c>
       <c r="F7">
-        <v>0.9975094908703355</v>
+        <v>0.542904454175904</v>
       </c>
       <c r="G7">
-        <v>0.4684115301010436</v>
+        <v>0.2816113468228139</v>
       </c>
       <c r="H7">
-        <v>0.6207801948298481</v>
+        <v>0.2445356015340963</v>
       </c>
       <c r="I7">
-        <v>0.4696711495710737</v>
+        <v>0.268755592766329</v>
       </c>
       <c r="J7">
-        <v>0.1702639823371399</v>
+        <v>0.153130449982342</v>
       </c>
       <c r="K7">
-        <v>0.8572088171878534</v>
+        <v>2.436624651928355</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.048373251993638</v>
+        <v>0.9109306543511764</v>
       </c>
       <c r="O7">
-        <v>2.136523591933951</v>
+        <v>1.058483290273287</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01979326322836528</v>
+        <v>0.05954728569430756</v>
       </c>
       <c r="D8">
-        <v>0.2468164560051775</v>
+        <v>0.2298649501384489</v>
       </c>
       <c r="E8">
-        <v>0.1792103016074478</v>
+        <v>0.1752674506460181</v>
       </c>
       <c r="F8">
-        <v>0.9986900210684553</v>
+        <v>0.5928667175412485</v>
       </c>
       <c r="G8">
-        <v>0.4685214895400236</v>
+        <v>0.3092578928640251</v>
       </c>
       <c r="H8">
-        <v>0.6156714397388399</v>
+        <v>0.2499691465891942</v>
       </c>
       <c r="I8">
-        <v>0.4701520823823628</v>
+        <v>0.2943769108491239</v>
       </c>
       <c r="J8">
-        <v>0.1754581350140541</v>
+        <v>0.1785245003282441</v>
       </c>
       <c r="K8">
-        <v>1.015645375896469</v>
+        <v>2.940045274594041</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.056937766502884</v>
+        <v>0.9465020847024732</v>
       </c>
       <c r="O8">
-        <v>2.126426559692931</v>
+        <v>1.128948971689113</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02605097711658289</v>
+        <v>0.07923009279770099</v>
       </c>
       <c r="D9">
-        <v>0.2623231413283946</v>
+        <v>0.2949196595817938</v>
       </c>
       <c r="E9">
-        <v>0.1904239312949585</v>
+        <v>0.2254472863511907</v>
       </c>
       <c r="F9">
-        <v>1.005897141346566</v>
+        <v>0.7010044699415516</v>
       </c>
       <c r="G9">
-        <v>0.4716876839307957</v>
+        <v>0.3705693463888906</v>
       </c>
       <c r="H9">
-        <v>0.6080818616907493</v>
+        <v>0.2649914476694732</v>
       </c>
       <c r="I9">
-        <v>0.4736756179084409</v>
+        <v>0.3503025866822469</v>
       </c>
       <c r="J9">
-        <v>0.1864493893032346</v>
+        <v>0.2302748076166949</v>
       </c>
       <c r="K9">
-        <v>1.324787691395954</v>
+        <v>3.926232248044869</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.076620825952816</v>
+        <v>1.022771185030138</v>
       </c>
       <c r="O9">
-        <v>2.117888131863737</v>
+        <v>1.291242044292801</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03061123769862206</v>
+        <v>0.09374459624230269</v>
       </c>
       <c r="D10">
-        <v>0.2741742373153784</v>
+        <v>0.3437635874588949</v>
       </c>
       <c r="E10">
-        <v>0.199087164292429</v>
+        <v>0.2634648473904306</v>
       </c>
       <c r="F10">
-        <v>1.014180410066686</v>
+        <v>0.7878363933456569</v>
       </c>
       <c r="G10">
-        <v>0.4758242884286261</v>
+        <v>0.4208331923809823</v>
       </c>
       <c r="H10">
-        <v>0.6039863838863369</v>
+        <v>0.2790909631087715</v>
       </c>
       <c r="I10">
-        <v>0.4778431175225819</v>
+        <v>0.3955358162643492</v>
       </c>
       <c r="J10">
-        <v>0.1950167628396287</v>
+        <v>0.269797438421179</v>
       </c>
       <c r="K10">
-        <v>1.550868701455272</v>
+        <v>4.651631056188137</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.09282170123717</v>
+        <v>1.08330134630198</v>
       </c>
       <c r="O10">
-        <v>2.118505595069053</v>
+        <v>1.427907043947215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03267756551424839</v>
+        <v>0.1003689787091986</v>
       </c>
       <c r="D11">
-        <v>0.2796641212814563</v>
+        <v>0.3662629621384355</v>
       </c>
       <c r="E11">
-        <v>0.2031202512779302</v>
+        <v>0.2810660289934148</v>
       </c>
       <c r="F11">
-        <v>1.018598939261992</v>
+        <v>0.8292227030377717</v>
       </c>
       <c r="G11">
-        <v>0.4781018108287469</v>
+        <v>0.4450434604708988</v>
       </c>
       <c r="H11">
-        <v>0.6024447785457596</v>
+        <v>0.2862648931522642</v>
       </c>
       <c r="I11">
-        <v>0.4800831139910997</v>
+        <v>0.4171743128297933</v>
       </c>
       <c r="J11">
-        <v>0.199021420112004</v>
+        <v>0.2881774312904923</v>
       </c>
       <c r="K11">
-        <v>1.65347183489223</v>
+        <v>4.982177441735701</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.100565526040256</v>
+        <v>1.111939369218135</v>
       </c>
       <c r="O11">
-        <v>2.120288336146018</v>
+        <v>1.494509280860541</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03345883362112545</v>
+        <v>0.1028814098175133</v>
       </c>
       <c r="D12">
-        <v>0.2817570836780874</v>
+        <v>0.3748276515209028</v>
       </c>
       <c r="E12">
-        <v>0.2046606816958274</v>
+        <v>0.2877802111539012</v>
       </c>
       <c r="F12">
-        <v>1.020365717638924</v>
+        <v>0.845190775985202</v>
       </c>
       <c r="G12">
-        <v>0.4790213417126381</v>
+        <v>0.4544234169449339</v>
       </c>
       <c r="H12">
-        <v>0.6019072351617183</v>
+        <v>0.2890991973625177</v>
       </c>
       <c r="I12">
-        <v>0.4809809145104538</v>
+        <v>0.4255351834109788</v>
       </c>
       <c r="J12">
-        <v>0.2005533095229453</v>
+        <v>0.2952016733087248</v>
       </c>
       <c r="K12">
-        <v>1.692287987303473</v>
+        <v>5.107458220411161</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.1035513002643</v>
+        <v>1.122953460042623</v>
       </c>
       <c r="O12">
-        <v>2.121179769498895</v>
+        <v>1.520424657412491</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03329062768131053</v>
+        <v>0.102340125016454</v>
       </c>
       <c r="D13">
-        <v>0.2813057035631061</v>
+        <v>0.3729810326375258</v>
       </c>
       <c r="E13">
-        <v>0.2043283368912157</v>
+        <v>0.286331931398415</v>
       </c>
       <c r="F13">
-        <v>1.019981047706594</v>
+        <v>0.8417381899600827</v>
       </c>
       <c r="G13">
-        <v>0.4788207627863841</v>
+        <v>0.4523935340798744</v>
       </c>
       <c r="H13">
-        <v>0.6020209486122354</v>
+        <v>0.2884834049017684</v>
       </c>
       <c r="I13">
-        <v>0.4807853517005327</v>
+        <v>0.4237268642156096</v>
       </c>
       <c r="J13">
-        <v>0.200222704561682</v>
+        <v>0.293685916453569</v>
       </c>
       <c r="K13">
-        <v>1.683929940159715</v>
+        <v>5.080471369507734</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.10290589396142</v>
+        <v>1.120573658041522</v>
       </c>
       <c r="O13">
-        <v>2.120978155174157</v>
+        <v>1.514811475838513</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03274186525457878</v>
+        <v>0.1005755945326428</v>
       </c>
       <c r="D14">
-        <v>0.2798360295222864</v>
+        <v>0.3669666628620547</v>
       </c>
       <c r="E14">
-        <v>0.203246719463877</v>
+        <v>0.2816173976694998</v>
       </c>
       <c r="F14">
-        <v>1.018742417494153</v>
+        <v>0.8305303264213677</v>
       </c>
       <c r="G14">
-        <v>0.4781763161840189</v>
+        <v>0.4458107940213978</v>
       </c>
       <c r="H14">
-        <v>0.6023996279981247</v>
+        <v>0.286495664160924</v>
       </c>
       <c r="I14">
-        <v>0.4801559828784008</v>
+        <v>0.4178587383853127</v>
       </c>
       <c r="J14">
-        <v>0.1991471407963132</v>
+        <v>0.2887539957370109</v>
       </c>
       <c r="K14">
-        <v>1.656666028034863</v>
+        <v>4.992481982475852</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.100810100533167</v>
+        <v>1.112842042867484</v>
       </c>
       <c r="O14">
-        <v>2.120357336785162</v>
+        <v>1.496627093585971</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03240557448447134</v>
+        <v>0.09949530416096763</v>
       </c>
       <c r="D15">
-        <v>0.2789376389532237</v>
+        <v>0.3632886400892374</v>
       </c>
       <c r="E15">
-        <v>0.2025859131814158</v>
+        <v>0.2787361410641225</v>
       </c>
       <c r="F15">
-        <v>1.017995908598394</v>
+        <v>0.8237044945362868</v>
       </c>
       <c r="G15">
-        <v>0.4777890129698932</v>
+        <v>0.4418068658932839</v>
       </c>
       <c r="H15">
-        <v>0.6026376006046377</v>
+        <v>0.2852937017487136</v>
       </c>
       <c r="I15">
-        <v>0.4797769328524453</v>
+        <v>0.4142865062790619</v>
       </c>
       <c r="J15">
-        <v>0.1984903335303727</v>
+        <v>0.28574160466124</v>
       </c>
       <c r="K15">
-        <v>1.63996114366978</v>
+        <v>4.938601196219622</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.099533302702</v>
+        <v>1.108128615826644</v>
       </c>
       <c r="O15">
-        <v>2.120005253808841</v>
+        <v>1.485580847205654</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03047603140210242</v>
+        <v>0.0933121808845101</v>
       </c>
       <c r="D16">
-        <v>0.273817435911738</v>
+        <v>0.3422992042164594</v>
       </c>
       <c r="E16">
-        <v>0.1988254413877257</v>
+        <v>0.26232115181746</v>
       </c>
       <c r="F16">
-        <v>1.013904741081845</v>
+        <v>0.7851717322517402</v>
       </c>
       <c r="G16">
-        <v>0.4756834254914253</v>
+        <v>0.4192796249547825</v>
       </c>
       <c r="H16">
-        <v>0.6040936002277704</v>
+        <v>0.2786381288269553</v>
       </c>
       <c r="I16">
-        <v>0.4777036602584346</v>
+        <v>0.3941442437408824</v>
       </c>
       <c r="J16">
-        <v>0.1947572069026506</v>
+        <v>0.2686048745867993</v>
       </c>
       <c r="K16">
-        <v>1.544158248926351</v>
+        <v>4.630042797496117</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.092323113159893</v>
+        <v>1.08145288949332</v>
       </c>
       <c r="O16">
-        <v>2.11841934272303</v>
+        <v>1.423648426368175</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02929020688073081</v>
+        <v>0.08952514034730541</v>
       </c>
       <c r="D17">
-        <v>0.2707015532143515</v>
+        <v>0.3294976203345641</v>
       </c>
       <c r="E17">
-        <v>0.1965420690149742</v>
+        <v>0.2523330332056162</v>
       </c>
       <c r="F17">
-        <v>1.011561566210645</v>
+        <v>0.7620332984156022</v>
       </c>
       <c r="G17">
-        <v>0.4744932028472988</v>
+        <v>0.4058172593992992</v>
       </c>
       <c r="H17">
-        <v>0.6050691431544664</v>
+        <v>0.2747556098779285</v>
       </c>
       <c r="I17">
-        <v>0.4765199774362259</v>
+        <v>0.3820693335430008</v>
       </c>
       <c r="J17">
-        <v>0.1924945272612746</v>
+        <v>0.2581992094494581</v>
       </c>
       <c r="K17">
-        <v>1.485322383023458</v>
+        <v>4.4409156766514</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.087995375945752</v>
+        <v>1.06537814549155</v>
       </c>
       <c r="O17">
-        <v>2.117831372188334</v>
+        <v>1.386829680482123</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02860738608826807</v>
+        <v>0.08734892238325642</v>
       </c>
       <c r="D18">
-        <v>0.268918684077903</v>
+        <v>0.3221605644995122</v>
       </c>
       <c r="E18">
-        <v>0.1952374098630187</v>
+        <v>0.2466166977025281</v>
       </c>
       <c r="F18">
-        <v>1.010275052743822</v>
+        <v>0.7489006282934838</v>
       </c>
       <c r="G18">
-        <v>0.4738458588571604</v>
+        <v>0.3981994727637215</v>
       </c>
       <c r="H18">
-        <v>0.6056605055411239</v>
+        <v>0.2725934861179553</v>
       </c>
       <c r="I18">
-        <v>0.4758715461264842</v>
+        <v>0.375223192253948</v>
       </c>
       <c r="J18">
-        <v>0.1912031960600871</v>
+        <v>0.2522514713273409</v>
       </c>
       <c r="K18">
-        <v>1.451458901668786</v>
+        <v>4.33218543576794</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.085541400016055</v>
+        <v>1.056235456737582</v>
       </c>
       <c r="O18">
-        <v>2.117634525978787</v>
+        <v>1.366066094403607</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02837606414200877</v>
+        <v>0.08661241003289888</v>
       </c>
       <c r="D19">
-        <v>0.268316637464352</v>
+        <v>0.3196807130926089</v>
       </c>
       <c r="E19">
-        <v>0.194797166714558</v>
+        <v>0.2446860077806932</v>
       </c>
       <c r="F19">
-        <v>1.009849974331175</v>
+        <v>0.7444836224809421</v>
       </c>
       <c r="G19">
-        <v>0.4736330701268656</v>
+        <v>0.3956412121739703</v>
       </c>
       <c r="H19">
-        <v>0.6058659270037907</v>
+        <v>0.27187337506669</v>
       </c>
       <c r="I19">
-        <v>0.4756575595959589</v>
+        <v>0.3729217976804406</v>
       </c>
       <c r="J19">
-        <v>0.1907677091606104</v>
+        <v>0.2502438898537918</v>
       </c>
       <c r="K19">
-        <v>1.439989498115608</v>
+        <v>4.295379084553645</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.084716588605289</v>
+        <v>1.053157281569597</v>
       </c>
       <c r="O19">
-        <v>2.117592140599754</v>
+        <v>1.359105253999161</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02941651942700219</v>
+        <v>0.08992806589704117</v>
       </c>
       <c r="D20">
-        <v>0.2710322823070754</v>
+        <v>0.330857641077273</v>
       </c>
       <c r="E20">
-        <v>0.1967842403887587</v>
+        <v>0.2533932947262088</v>
       </c>
       <c r="F20">
-        <v>1.011804664923915</v>
+        <v>0.7644780403735041</v>
       </c>
       <c r="G20">
-        <v>0.4746160485614155</v>
+        <v>0.407237240594327</v>
       </c>
       <c r="H20">
-        <v>0.604962163533969</v>
+        <v>0.2751615034527077</v>
       </c>
       <c r="I20">
-        <v>0.4766426295601889</v>
+        <v>0.3833443796371583</v>
       </c>
       <c r="J20">
-        <v>0.1927343479627694</v>
+        <v>0.2593030017314675</v>
       </c>
       <c r="K20">
-        <v>1.491587924110377</v>
+        <v>4.461043129657185</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.088452428466056</v>
+        <v>1.067078584183449</v>
       </c>
       <c r="O20">
-        <v>2.117879331821513</v>
+        <v>1.390705892655546</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03290308305474809</v>
+        <v>0.1010937667961258</v>
       </c>
       <c r="D21">
-        <v>0.2802673278720818</v>
+        <v>0.368731980300538</v>
       </c>
       <c r="E21">
-        <v>0.2035640592971291</v>
+        <v>0.2830008001695887</v>
       </c>
       <c r="F21">
-        <v>1.019103693189763</v>
+        <v>0.8338141092778386</v>
       </c>
       <c r="G21">
-        <v>0.47836405519854</v>
+        <v>0.4477383944774829</v>
       </c>
       <c r="H21">
-        <v>0.602287145996911</v>
+        <v>0.287076247847196</v>
       </c>
       <c r="I21">
-        <v>0.4803394980953826</v>
+        <v>0.4195777035118624</v>
       </c>
       <c r="J21">
-        <v>0.1994626418085375</v>
+        <v>0.2902008257948694</v>
       </c>
       <c r="K21">
-        <v>1.664675136303401</v>
+        <v>5.018323362862247</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.101424241116703</v>
+        <v>1.115108314751922</v>
       </c>
       <c r="O21">
-        <v>2.120533811534642</v>
+        <v>1.501948962955794</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0351747129188027</v>
+        <v>0.1084144669176652</v>
       </c>
       <c r="D22">
-        <v>0.2863848662451005</v>
+        <v>0.3937476553460897</v>
       </c>
       <c r="E22">
-        <v>0.2080719033137086</v>
+        <v>0.3026391215155968</v>
       </c>
       <c r="F22">
-        <v>1.024419490500691</v>
+        <v>0.880867125430413</v>
       </c>
       <c r="G22">
-        <v>0.4811463942624528</v>
+        <v>0.4754538177087113</v>
       </c>
       <c r="H22">
-        <v>0.600808328386222</v>
+        <v>0.2955535406727705</v>
       </c>
       <c r="I22">
-        <v>0.4830445350365551</v>
+        <v>0.444238023973675</v>
       </c>
       <c r="J22">
-        <v>0.2039497980152163</v>
+        <v>0.3107715269896687</v>
       </c>
       <c r="K22">
-        <v>1.777578281817568</v>
+        <v>5.383195213242004</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.110212879136654</v>
+        <v>1.147492072489939</v>
       </c>
       <c r="O22">
-        <v>2.123529884669921</v>
+        <v>1.578730467775131</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0339629562704431</v>
+        <v>0.1045048618591125</v>
       </c>
       <c r="D23">
-        <v>0.2831123728498142</v>
+        <v>0.3803707560996088</v>
       </c>
       <c r="E23">
-        <v>0.2056589716331274</v>
+        <v>0.2921297156295566</v>
       </c>
       <c r="F23">
-        <v>1.021532424822283</v>
+        <v>0.855586404428621</v>
       </c>
       <c r="G23">
-        <v>0.4796308996258745</v>
+        <v>0.460541113036669</v>
       </c>
       <c r="H23">
-        <v>0.601572943753041</v>
+        <v>0.2909629582768218</v>
       </c>
       <c r="I23">
-        <v>0.4815743469588369</v>
+        <v>0.4309817670464184</v>
       </c>
       <c r="J23">
-        <v>0.2015467055982469</v>
+        <v>0.2997557810956692</v>
       </c>
       <c r="K23">
-        <v>1.717340673604497</v>
+        <v>5.188385647794405</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.105493915601485</v>
+        <v>1.130113529813244</v>
       </c>
       <c r="O23">
-        <v>2.121815296833404</v>
+        <v>1.537357724822499</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02935941687071875</v>
+        <v>0.0897459001951546</v>
       </c>
       <c r="D24">
-        <v>0.2708827332192101</v>
+        <v>0.330242705181945</v>
       </c>
       <c r="E24">
-        <v>0.1966747295322548</v>
+        <v>0.2529138699763465</v>
       </c>
       <c r="F24">
-        <v>1.011694571206377</v>
+        <v>0.7633722451131462</v>
       </c>
       <c r="G24">
-        <v>0.4745603949902204</v>
+        <v>0.406594888779253</v>
       </c>
       <c r="H24">
-        <v>0.6050104339839208</v>
+        <v>0.2749777815993042</v>
       </c>
       <c r="I24">
-        <v>0.4765870786017175</v>
+        <v>0.3827676336970498</v>
       </c>
       <c r="J24">
-        <v>0.1926258953899378</v>
+        <v>0.2588038698999497</v>
       </c>
       <c r="K24">
-        <v>1.48875539102238</v>
+        <v>4.451943505817383</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.088245688776595</v>
+        <v>1.06630950863206</v>
       </c>
       <c r="O24">
-        <v>2.117857209513744</v>
+        <v>1.388952203034279</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0243645848930214</v>
+        <v>0.07389908186996763</v>
       </c>
       <c r="D25">
-        <v>0.2580473112721364</v>
+        <v>0.2771529853559542</v>
       </c>
       <c r="E25">
-        <v>0.1873156840441155</v>
+        <v>0.211688274166967</v>
       </c>
       <c r="F25">
-        <v>1.003423082954079</v>
+        <v>0.6705440835462895</v>
       </c>
       <c r="G25">
-        <v>0.4705140565178709</v>
+        <v>0.3531343587564209</v>
       </c>
       <c r="H25">
-        <v>0.6098750375550424</v>
+        <v>0.2604201166132469</v>
       </c>
       <c r="I25">
-        <v>0.4724455672794221</v>
+        <v>0.3344970549306154</v>
       </c>
       <c r="J25">
-        <v>0.1833896184022592</v>
+        <v>0.2160349788347986</v>
       </c>
       <c r="K25">
-        <v>1.241332960551915</v>
+        <v>3.659406921350921</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.070989038282107</v>
+        <v>1.001389016643003</v>
       </c>
       <c r="O25">
-        <v>2.118989739447272</v>
+        <v>1.244484347440078</v>
       </c>
     </row>
   </sheetData>
